--- a/Doc/Template1_Project Tracking.xlsx
+++ b/Doc/Template1_Project Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F586EA5-2391-47C1-9BDD-BD0828638900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D07E3-4E53-4B65-AB0A-47FC4FC63EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">This screen will show all the products </t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -1466,11 +1469,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -1571,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1593,12 +1596,96 @@
       </c>
       <c r="I7" s="4"/>
     </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>ROW()-5</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>ROW()-5</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H10" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
